--- a/20190508.xlsx
+++ b/20190508.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>TEST</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>detect-object</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,11 +62,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ALL_R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">WH180605-L TRAIN:300Image 14166Proposal </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VAL3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VAL3-4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,10 +122,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -420,30 +420,27 @@
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>5000</v>
@@ -454,13 +451,10 @@
       <c r="F2">
         <v>33</v>
       </c>
-      <c r="H2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>282161</v>
@@ -471,11 +465,8 @@
       <c r="F3">
         <v>1883</v>
       </c>
-      <c r="H3">
-        <v>138466</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -489,7 +480,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -503,46 +494,160 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>513</v>
-      </c>
-      <c r="E6">
-        <v>54</v>
-      </c>
-      <c r="F6">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>5000</v>
+      </c>
+      <c r="E18">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>231</v>
+      </c>
+      <c r="E19">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>105</v>
+      </c>
+      <c r="E20">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
         <v>1</v>
       </c>
-      <c r="D7">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>21</v>
-      </c>
-      <c r="F7">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8">
+      <c r="D21">
+        <v>124</v>
+      </c>
+      <c r="E21">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>102</v>
+      </c>
+      <c r="E22">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
         <v>2</v>
       </c>
-      <c r="E8">
-        <v>9</v>
-      </c>
-      <c r="F8">
-        <v>10</v>
+      <c r="D27">
+        <v>184</v>
+      </c>
+      <c r="E27">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>144</v>
+      </c>
+      <c r="E28">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>124</v>
+      </c>
+      <c r="E29">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>111</v>
+      </c>
+      <c r="E30">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
